--- a/KẾ TOÁN - THÁI HẰNG 26/QUỲNH TRANG/KHO,DT, CP.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/QUỲNH TRANG/KHO,DT, CP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="KHO" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="CHI PHÍ" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -809,39 +809,6 @@
   </si>
   <si>
     <t>Xuất tình thu (CTY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BẢNG THEO DÕI CÁC KHOẢN THU CHI ANH TÂM</t>
-  </si>
-  <si>
-    <t>NỘI DUNG</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>Độc lập – Tự do – Hạnh phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiền thuê nhà 6 tháng </t>
-  </si>
-  <si>
-    <t>Sửa nhà</t>
-  </si>
-  <si>
-    <t>Cửa cuốn</t>
-  </si>
-  <si>
-    <t>Mạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoa </t>
-  </si>
-  <si>
-    <t>Mành</t>
   </si>
 </sst>
 </file>
@@ -849,10 +816,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
@@ -1279,14 +1246,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,16 +1360,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1411,13 +1378,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,15 +1392,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,15 +1410,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1467,14 +1434,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1482,25 +1449,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1524,15 +1491,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1540,28 +1507,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,14 +1537,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1594,21 +1561,21 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1617,7 +1584,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1635,7 +1602,7 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1651,13 +1618,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1669,7 +1636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,7 +1648,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,13 +1660,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1714,16 +1681,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1780,37 +1747,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,59 +1853,89 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1892,10 +1943,10 @@
     <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,13 +1961,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,84 +1970,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2021,10 +1988,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2036,43 +2003,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2382,32 +2312,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z52" sqref="Z52:AA52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
+      <c r="A1" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2440,11 +2370,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2480,235 +2410,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="258"/>
-      <c r="AD3" s="258"/>
-      <c r="AE3" s="258"/>
-      <c r="AF3" s="258"/>
-      <c r="AG3" s="258"/>
-      <c r="AH3" s="258"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="277"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="277"/>
+      <c r="T3" s="277"/>
+      <c r="U3" s="277"/>
+      <c r="V3" s="277"/>
+      <c r="W3" s="277"/>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
+      <c r="Z3" s="277"/>
+      <c r="AA3" s="277"/>
+      <c r="AB3" s="277"/>
+      <c r="AC3" s="277"/>
+      <c r="AD3" s="277"/>
+      <c r="AE3" s="277"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="277" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="258"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="258"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="258"/>
-      <c r="AA4" s="258"/>
-      <c r="AB4" s="258"/>
-      <c r="AC4" s="258"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="258"/>
-      <c r="AF4" s="258"/>
-      <c r="AG4" s="258"/>
-      <c r="AH4" s="258"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="258"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="258"/>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="258"/>
-      <c r="AE5" s="258"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+      <c r="P4" s="277"/>
+      <c r="Q4" s="277"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="277"/>
+      <c r="V4" s="277"/>
+      <c r="W4" s="277"/>
+      <c r="X4" s="277"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="277"/>
+      <c r="AC4" s="277"/>
+      <c r="AD4" s="277"/>
+      <c r="AE4" s="277"/>
+      <c r="AF4" s="277"/>
+      <c r="AG4" s="277"/>
+      <c r="AH4" s="277"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="277"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="277"/>
+      <c r="AA5" s="277"/>
+      <c r="AB5" s="277"/>
+      <c r="AC5" s="277"/>
+      <c r="AD5" s="277"/>
+      <c r="AE5" s="277"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="264"/>
-      <c r="AH6" s="259" t="s">
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="281"/>
+      <c r="U6" s="281"/>
+      <c r="V6" s="281"/>
+      <c r="W6" s="281"/>
+      <c r="X6" s="281"/>
+      <c r="Y6" s="281"/>
+      <c r="Z6" s="281"/>
+      <c r="AA6" s="281"/>
+      <c r="AB6" s="281"/>
+      <c r="AC6" s="281"/>
+      <c r="AD6" s="281"/>
+      <c r="AE6" s="281"/>
+      <c r="AF6" s="281"/>
+      <c r="AG6" s="282"/>
+      <c r="AH6" s="255" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="259"/>
-      <c r="B7" s="260"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="265" t="s">
+      <c r="A7" s="255"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="283" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="259" t="s">
+      <c r="E7" s="283"/>
+      <c r="F7" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="266" t="s">
+      <c r="G7" s="255"/>
+      <c r="H7" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="266"/>
-      <c r="J7" s="259" t="s">
+      <c r="I7" s="284"/>
+      <c r="J7" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="259"/>
-      <c r="L7" s="280" t="s">
+      <c r="K7" s="255"/>
+      <c r="L7" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="280"/>
-      <c r="N7" s="259" t="s">
+      <c r="M7" s="259"/>
+      <c r="N7" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="259"/>
-      <c r="P7" s="283" t="s">
+      <c r="O7" s="255"/>
+      <c r="P7" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="283"/>
-      <c r="R7" s="259" t="s">
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="259"/>
-      <c r="T7" s="284" t="s">
+      <c r="S7" s="255"/>
+      <c r="T7" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="284"/>
-      <c r="V7" s="259" t="s">
+      <c r="U7" s="256"/>
+      <c r="V7" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="259"/>
-      <c r="X7" s="254" t="s">
+      <c r="W7" s="255"/>
+      <c r="X7" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="254"/>
-      <c r="Z7" s="259" t="s">
+      <c r="Y7" s="274"/>
+      <c r="Z7" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="282" t="s">
+      <c r="AA7" s="255"/>
+      <c r="AB7" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="259" t="s">
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="252" t="s">
+      <c r="AE7" s="255"/>
+      <c r="AF7" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="252" t="s">
+      <c r="AG7" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="259"/>
+      <c r="AH7" s="255"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="259"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="261"/>
+      <c r="A8" s="255"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="279"/>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2793,9 +2723,9 @@
       <c r="AE8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="253"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="259"/>
+      <c r="AF8" s="258"/>
+      <c r="AG8" s="258"/>
+      <c r="AH8" s="255"/>
     </row>
     <row r="9" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
@@ -3079,7 +3009,7 @@
       </c>
       <c r="AH13" s="95"/>
     </row>
-    <row r="14" spans="1:34" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="177">
         <v>6</v>
       </c>
@@ -3503,7 +3433,7 @@
       </c>
       <c r="AH21" s="95"/>
     </row>
-    <row r="22" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="177">
         <v>14</v>
       </c>
@@ -3657,7 +3587,7 @@
       </c>
       <c r="AH24" s="95"/>
     </row>
-    <row r="25" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="81">
         <v>17</v>
       </c>
@@ -3713,7 +3643,7 @@
       </c>
       <c r="AH25" s="95"/>
     </row>
-    <row r="26" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="177">
         <v>18</v>
       </c>
@@ -3767,7 +3697,7 @@
       </c>
       <c r="AH26" s="95"/>
     </row>
-    <row r="27" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="81">
         <v>19</v>
       </c>
@@ -3821,7 +3751,7 @@
       </c>
       <c r="AH27" s="95"/>
     </row>
-    <row r="28" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="177">
         <v>20</v>
       </c>
@@ -3871,7 +3801,7 @@
       </c>
       <c r="AH28" s="95"/>
     </row>
-    <row r="29" spans="1:34" s="94" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="94" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="81">
         <v>21</v>
       </c>
@@ -3921,7 +3851,7 @@
       </c>
       <c r="AH29" s="95"/>
     </row>
-    <row r="30" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="177">
         <v>22</v>
       </c>
@@ -3971,7 +3901,7 @@
       </c>
       <c r="AH30" s="95"/>
     </row>
-    <row r="31" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="81">
         <v>23</v>
       </c>
@@ -4073,7 +4003,7 @@
       </c>
       <c r="AH32" s="95"/>
     </row>
-    <row r="33" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="81">
         <v>25</v>
       </c>
@@ -4123,7 +4053,7 @@
       </c>
       <c r="AH33" s="95"/>
     </row>
-    <row r="34" spans="1:34" s="94" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="177">
         <v>26</v>
       </c>
@@ -4485,7 +4415,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="81">
         <v>33</v>
       </c>
@@ -4537,7 +4467,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="177">
         <v>34</v>
       </c>
@@ -4581,7 +4511,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>35</v>
       </c>
@@ -4625,7 +4555,7 @@
       </c>
       <c r="AH43" s="22"/>
     </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>36</v>
       </c>
@@ -4669,7 +4599,7 @@
       </c>
       <c r="AH44" s="21"/>
     </row>
-    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>37</v>
       </c>
@@ -4713,7 +4643,7 @@
       </c>
       <c r="AH45" s="21"/>
     </row>
-    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -4757,7 +4687,7 @@
       </c>
       <c r="AH46" s="21"/>
     </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>39</v>
       </c>
@@ -4801,7 +4731,7 @@
       </c>
       <c r="AH47" s="21"/>
     </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>40</v>
       </c>
@@ -4845,7 +4775,7 @@
       </c>
       <c r="AH48" s="21"/>
     </row>
-    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>41</v>
       </c>
@@ -4889,7 +4819,7 @@
       </c>
       <c r="AH49" s="21"/>
     </row>
-    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>42</v>
       </c>
@@ -4933,7 +4863,7 @@
       </c>
       <c r="AH50" s="50"/>
     </row>
-    <row r="51" spans="1:34" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="C51" s="129"/>
@@ -4969,80 +4899,80 @@
       <c r="AG51" s="61"/>
       <c r="AH51" s="60"/>
     </row>
-    <row r="52" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="277"/>
-      <c r="C52" s="278"/>
-      <c r="D52" s="279">
+      <c r="B52" s="271"/>
+      <c r="C52" s="272"/>
+      <c r="D52" s="273">
         <f>SUM(D9:D50)-SUM(E9:E50)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="279"/>
-      <c r="F52" s="256">
+      <c r="E52" s="273"/>
+      <c r="F52" s="262">
         <f>SUM(F9:F50)-SUM(G9:G50)</f>
         <v>19</v>
       </c>
-      <c r="G52" s="256"/>
-      <c r="H52" s="255">
+      <c r="G52" s="262"/>
+      <c r="H52" s="275">
         <f>SUM(H9:H50)-SUM(I9:I50)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="255"/>
-      <c r="J52" s="256">
+      <c r="I52" s="275"/>
+      <c r="J52" s="262">
         <f>SUM(J9:J50)-SUM(K9:K50)</f>
         <v>26</v>
       </c>
-      <c r="K52" s="256"/>
-      <c r="L52" s="276">
+      <c r="K52" s="262"/>
+      <c r="L52" s="270">
         <f>SUM(L9:L50)-SUM(M9:M50)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="276"/>
-      <c r="N52" s="256">
+      <c r="M52" s="270"/>
+      <c r="N52" s="262">
         <f>SUM(N9:N50)-SUM(O9:O50)</f>
         <v>52</v>
       </c>
-      <c r="O52" s="256"/>
-      <c r="P52" s="269">
+      <c r="O52" s="262"/>
+      <c r="P52" s="263">
         <f>SUM(P9:P50)-SUM(Q9:Q50)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="269"/>
-      <c r="R52" s="256">
+      <c r="Q52" s="263"/>
+      <c r="R52" s="262">
         <f>SUM(R9:R50)-SUM(S9:S50)</f>
         <v>74</v>
       </c>
-      <c r="S52" s="256"/>
-      <c r="T52" s="270">
+      <c r="S52" s="262"/>
+      <c r="T52" s="264">
         <f>SUM(T9:T50)-SUM(U9:U50)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="270"/>
-      <c r="V52" s="256">
+      <c r="U52" s="264"/>
+      <c r="V52" s="262">
         <f>SUM(V9:V50)-SUM(W9:W50)</f>
         <v>12</v>
       </c>
-      <c r="W52" s="256"/>
-      <c r="X52" s="271">
+      <c r="W52" s="262"/>
+      <c r="X52" s="265">
         <f>SUM(X9:X50)-SUM(Y9:Y50)</f>
         <v>71</v>
       </c>
-      <c r="Y52" s="271"/>
-      <c r="Z52" s="256">
+      <c r="Y52" s="265"/>
+      <c r="Z52" s="262">
         <f>SUM(Z9:Z50)-SUM(AA9:AA50)</f>
         <v>63</v>
       </c>
-      <c r="AA52" s="256"/>
-      <c r="AB52" s="272">
+      <c r="AA52" s="262"/>
+      <c r="AB52" s="266">
         <f>SUM(AB9:AB50)-SUM(AC9:AC50)</f>
         <v>57</v>
       </c>
-      <c r="AC52" s="272"/>
-      <c r="AD52" s="256">
+      <c r="AC52" s="266"/>
+      <c r="AD52" s="262">
         <f>SUM(AD9:AD50)-SUM(AE9:AE50)</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="256"/>
+      <c r="AE52" s="262"/>
       <c r="AF52" s="48"/>
       <c r="AG52" s="20">
         <f t="shared" si="1"/>
@@ -5051,39 +4981,39 @@
       <c r="AH52" s="64"/>
     </row>
     <row r="53" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="273" t="s">
+      <c r="A53" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="274"/>
-      <c r="C53" s="274"/>
-      <c r="D53" s="274"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="274"/>
-      <c r="G53" s="274"/>
-      <c r="H53" s="274"/>
-      <c r="I53" s="274"/>
-      <c r="J53" s="274"/>
-      <c r="K53" s="274"/>
-      <c r="L53" s="274"/>
-      <c r="M53" s="274"/>
-      <c r="N53" s="274"/>
-      <c r="O53" s="274"/>
-      <c r="P53" s="274"/>
-      <c r="Q53" s="274"/>
-      <c r="R53" s="274"/>
-      <c r="S53" s="274"/>
-      <c r="T53" s="274"/>
-      <c r="U53" s="274"/>
-      <c r="V53" s="274"/>
-      <c r="W53" s="274"/>
-      <c r="X53" s="274"/>
-      <c r="Y53" s="274"/>
-      <c r="Z53" s="274"/>
-      <c r="AA53" s="274"/>
-      <c r="AB53" s="274"/>
-      <c r="AC53" s="274"/>
-      <c r="AD53" s="274"/>
-      <c r="AE53" s="275"/>
+      <c r="B53" s="268"/>
+      <c r="C53" s="268"/>
+      <c r="D53" s="268"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="268"/>
+      <c r="G53" s="268"/>
+      <c r="H53" s="268"/>
+      <c r="I53" s="268"/>
+      <c r="J53" s="268"/>
+      <c r="K53" s="268"/>
+      <c r="L53" s="268"/>
+      <c r="M53" s="268"/>
+      <c r="N53" s="268"/>
+      <c r="O53" s="268"/>
+      <c r="P53" s="268"/>
+      <c r="Q53" s="268"/>
+      <c r="R53" s="268"/>
+      <c r="S53" s="268"/>
+      <c r="T53" s="268"/>
+      <c r="U53" s="268"/>
+      <c r="V53" s="268"/>
+      <c r="W53" s="268"/>
+      <c r="X53" s="268"/>
+      <c r="Y53" s="268"/>
+      <c r="Z53" s="268"/>
+      <c r="AA53" s="268"/>
+      <c r="AB53" s="268"/>
+      <c r="AC53" s="268"/>
+      <c r="AD53" s="268"/>
+      <c r="AE53" s="269"/>
       <c r="AF53" s="65">
         <f>SUM(AF9:AF50)</f>
         <v>339</v>
@@ -5095,60 +5025,64 @@
       <c r="AH53" s="66"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="273" t="s">
+      <c r="A54" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="274"/>
-      <c r="C54" s="274"/>
-      <c r="D54" s="274"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="274"/>
-      <c r="G54" s="274"/>
-      <c r="H54" s="274"/>
-      <c r="I54" s="274"/>
-      <c r="J54" s="274"/>
-      <c r="K54" s="274"/>
-      <c r="L54" s="274"/>
-      <c r="M54" s="274"/>
-      <c r="N54" s="274"/>
-      <c r="O54" s="274"/>
-      <c r="P54" s="274"/>
-      <c r="Q54" s="274"/>
-      <c r="R54" s="274"/>
-      <c r="S54" s="274"/>
-      <c r="T54" s="274"/>
-      <c r="U54" s="274"/>
-      <c r="V54" s="274"/>
-      <c r="W54" s="274"/>
-      <c r="X54" s="274"/>
-      <c r="Y54" s="274"/>
-      <c r="Z54" s="274"/>
-      <c r="AA54" s="274"/>
-      <c r="AB54" s="274"/>
-      <c r="AC54" s="274"/>
-      <c r="AD54" s="274"/>
-      <c r="AE54" s="275"/>
-      <c r="AF54" s="267">
+      <c r="B54" s="268"/>
+      <c r="C54" s="268"/>
+      <c r="D54" s="268"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="268"/>
+      <c r="G54" s="268"/>
+      <c r="H54" s="268"/>
+      <c r="I54" s="268"/>
+      <c r="J54" s="268"/>
+      <c r="K54" s="268"/>
+      <c r="L54" s="268"/>
+      <c r="M54" s="268"/>
+      <c r="N54" s="268"/>
+      <c r="O54" s="268"/>
+      <c r="P54" s="268"/>
+      <c r="Q54" s="268"/>
+      <c r="R54" s="268"/>
+      <c r="S54" s="268"/>
+      <c r="T54" s="268"/>
+      <c r="U54" s="268"/>
+      <c r="V54" s="268"/>
+      <c r="W54" s="268"/>
+      <c r="X54" s="268"/>
+      <c r="Y54" s="268"/>
+      <c r="Z54" s="268"/>
+      <c r="AA54" s="268"/>
+      <c r="AB54" s="268"/>
+      <c r="AC54" s="268"/>
+      <c r="AD54" s="268"/>
+      <c r="AE54" s="269"/>
+      <c r="AF54" s="260">
         <f>AG53-AF53</f>
         <v>374</v>
       </c>
-      <c r="AG54" s="268"/>
+      <c r="AG54" s="261"/>
       <c r="AH54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="AF54:AG54"/>
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="P52:Q52"/>
@@ -5165,22 +5099,18 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5196,26 +5126,26 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="112" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="111" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="112" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="111" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="80" customWidth="1"/>
     <col min="5" max="5" width="5" style="80" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="113" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="113" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="114"/>
+    <col min="6" max="6" width="10.85546875" style="113" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="113" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="114"/>
     <col min="10" max="10" width="13" style="113" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="113" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="113" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="113" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="80"/>
+    <col min="11" max="11" width="11.85546875" style="113" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="113" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="113" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
@@ -5231,7 +5161,7 @@
       <c r="M1" s="73"/>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
@@ -5247,147 +5177,147 @@
       <c r="M2" s="73"/>
       <c r="N2" s="74"/>
     </row>
-    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="285" t="s">
+    <row r="3" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
       <c r="O3" s="124"/>
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
-    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="285" t="s">
+    <row r="4" spans="1:17" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="313" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="285"/>
-      <c r="N4" s="285"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
       <c r="O4" s="124"/>
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:17" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
+    <row r="5" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="313"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="74"/>
     </row>
-    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="287" t="s">
+    <row r="6" spans="1:17" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="289" t="s">
+      <c r="B6" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="289"/>
-      <c r="D6" s="290" t="s">
+      <c r="C6" s="317"/>
+      <c r="D6" s="318" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="295" t="s">
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="295"/>
-      <c r="M6" s="295"/>
-      <c r="N6" s="296" t="s">
+      <c r="L6" s="321"/>
+      <c r="M6" s="321"/>
+      <c r="N6" s="322" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="288"/>
-      <c r="B7" s="291" t="s">
+    <row r="7" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="316"/>
+      <c r="B7" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="291" t="s">
+      <c r="D7" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="291" t="s">
+      <c r="E7" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="293" t="s">
+      <c r="F7" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="293" t="s">
+      <c r="G7" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="323" t="s">
+      <c r="H7" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="323"/>
-      <c r="J7" s="293" t="s">
+      <c r="I7" s="296"/>
+      <c r="J7" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="293" t="s">
+      <c r="K7" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="293" t="s">
+      <c r="L7" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="293" t="s">
+      <c r="M7" s="285" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="297"/>
-    </row>
-    <row r="8" spans="1:17" s="77" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="288"/>
-      <c r="B8" s="292"/>
-      <c r="C8" s="292"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
+      <c r="N7" s="323"/>
+    </row>
+    <row r="8" spans="1:17" s="77" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="316"/>
+      <c r="B8" s="320"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="320"/>
+      <c r="E8" s="320"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
       <c r="H8" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="297"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="323"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="132">
@@ -5429,10 +5359,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="308">
+      <c r="A10" s="293">
         <v>43958</v>
       </c>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="287" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="115"/>
@@ -5463,8 +5393,8 @@
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="309"/>
-      <c r="B11" s="318"/>
+      <c r="A11" s="295"/>
+      <c r="B11" s="289"/>
       <c r="C11" s="137"/>
       <c r="D11" s="84" t="s">
         <v>21</v>
@@ -5493,10 +5423,10 @@
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="308">
+      <c r="A12" s="293">
         <v>43958</v>
       </c>
-      <c r="B12" s="316" t="s">
+      <c r="B12" s="287" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="115"/>
@@ -5527,8 +5457,8 @@
       <c r="N12" s="81"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="309"/>
-      <c r="B13" s="318"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="289"/>
       <c r="C13" s="90"/>
       <c r="D13" s="84" t="s">
         <v>16</v>
@@ -5556,7 +5486,7 @@
       <c r="M13" s="140"/>
       <c r="N13" s="141"/>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <v>43958</v>
       </c>
@@ -5591,10 +5521,10 @@
       <c r="N14" s="145"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="308">
+      <c r="A15" s="293">
         <v>43958</v>
       </c>
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="287" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="115"/>
@@ -5611,7 +5541,7 @@
         <f>E15*F15</f>
         <v>1455000</v>
       </c>
-      <c r="H15" s="319">
+      <c r="H15" s="290">
         <v>288000</v>
       </c>
       <c r="I15" s="83">
@@ -5627,13 +5557,13 @@
       </c>
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
-      <c r="N15" s="305" t="s">
+      <c r="N15" s="300" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="322"/>
-      <c r="B16" s="317"/>
+      <c r="A16" s="294"/>
+      <c r="B16" s="288"/>
       <c r="C16" s="116"/>
       <c r="D16" s="91" t="s">
         <v>20</v>
@@ -5648,7 +5578,7 @@
         <f>E16*F16</f>
         <v>455000</v>
       </c>
-      <c r="H16" s="320"/>
+      <c r="H16" s="291"/>
       <c r="I16" s="93">
         <v>0.1</v>
       </c>
@@ -5662,11 +5592,11 @@
       </c>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="306"/>
+      <c r="N16" s="301"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="322"/>
-      <c r="B17" s="317"/>
+      <c r="A17" s="294"/>
+      <c r="B17" s="288"/>
       <c r="C17" s="116"/>
       <c r="D17" s="91" t="s">
         <v>10</v>
@@ -5681,7 +5611,7 @@
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="H17" s="320"/>
+      <c r="H17" s="291"/>
       <c r="I17" s="93">
         <v>0.1</v>
       </c>
@@ -5695,11 +5625,11 @@
       </c>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
-      <c r="N17" s="306"/>
+      <c r="N17" s="301"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="309"/>
-      <c r="B18" s="318"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="289"/>
       <c r="C18" s="90"/>
       <c r="D18" s="90" t="s">
         <v>21</v>
@@ -5714,7 +5644,7 @@
         <f>F18*E18</f>
         <v>550000</v>
       </c>
-      <c r="H18" s="321"/>
+      <c r="H18" s="292"/>
       <c r="I18" s="149">
         <v>0.1</v>
       </c>
@@ -5728,13 +5658,13 @@
       </c>
       <c r="L18" s="148"/>
       <c r="M18" s="148"/>
-      <c r="N18" s="307"/>
+      <c r="N18" s="302"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="308">
+      <c r="A19" s="293">
         <v>43958</v>
       </c>
-      <c r="B19" s="316" t="s">
+      <c r="B19" s="287" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="138"/>
@@ -5767,13 +5697,13 @@
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="146"/>
-      <c r="N19" s="311" t="s">
+      <c r="N19" s="304" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="322"/>
-      <c r="B20" s="317"/>
+      <c r="A20" s="294"/>
+      <c r="B20" s="288"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87" t="s">
         <v>21</v>
@@ -5804,11 +5734,11 @@
       </c>
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
-      <c r="N20" s="312"/>
+      <c r="N20" s="305"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="309"/>
-      <c r="B21" s="318"/>
+      <c r="A21" s="295"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150" t="s">
         <v>14</v>
@@ -5839,7 +5769,7 @@
       </c>
       <c r="L21" s="151"/>
       <c r="M21" s="151"/>
-      <c r="N21" s="313"/>
+      <c r="N21" s="306"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
@@ -5921,7 +5851,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="308">
+      <c r="A24" s="293">
         <v>43962</v>
       </c>
       <c r="B24" s="178" t="s">
@@ -5957,12 +5887,12 @@
       </c>
       <c r="L24" s="82"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="314" t="s">
+      <c r="N24" s="307" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="309"/>
+      <c r="A25" s="295"/>
       <c r="B25" s="90" t="s">
         <v>69</v>
       </c>
@@ -5996,7 +5926,7 @@
       </c>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
-      <c r="N25" s="315"/>
+      <c r="N25" s="308"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
@@ -6037,7 +5967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
@@ -6059,7 +5989,7 @@
       <c r="M27" s="96"/>
       <c r="N27" s="95"/>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="117"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -6081,7 +6011,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="91"/>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="117"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -6103,7 +6033,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="117"/>
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
@@ -6125,7 +6055,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="118"/>
       <c r="B31" s="87"/>
       <c r="C31" s="87"/>
@@ -6147,7 +6077,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="118"/>
       <c r="B32" s="87"/>
       <c r="C32" s="87"/>
@@ -6169,7 +6099,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="118"/>
       <c r="B33" s="87"/>
       <c r="C33" s="87"/>
@@ -6191,7 +6121,7 @@
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="118"/>
       <c r="B34" s="87"/>
       <c r="C34" s="87"/>
@@ -6233,7 +6163,7 @@
       <c r="K35" s="92"/>
       <c r="L35" s="92"/>
       <c r="M35" s="92"/>
-      <c r="N35" s="302"/>
+      <c r="N35" s="311"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="118"/>
@@ -6255,7 +6185,7 @@
       <c r="K36" s="92"/>
       <c r="L36" s="92"/>
       <c r="M36" s="92"/>
-      <c r="N36" s="302"/>
+      <c r="N36" s="311"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
@@ -6277,7 +6207,7 @@
       <c r="K37" s="92"/>
       <c r="L37" s="92"/>
       <c r="M37" s="92"/>
-      <c r="N37" s="302"/>
+      <c r="N37" s="311"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
@@ -6299,7 +6229,7 @@
       <c r="K38" s="92"/>
       <c r="L38" s="92"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="302"/>
+      <c r="N38" s="311"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
@@ -6321,7 +6251,7 @@
       <c r="K39" s="92"/>
       <c r="L39" s="92"/>
       <c r="M39" s="92"/>
-      <c r="N39" s="302"/>
+      <c r="N39" s="311"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
@@ -6343,7 +6273,7 @@
       <c r="K40" s="92"/>
       <c r="L40" s="92"/>
       <c r="M40" s="92"/>
-      <c r="N40" s="302"/>
+      <c r="N40" s="311"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="117"/>
@@ -6409,7 +6339,7 @@
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
       <c r="M43" s="96"/>
-      <c r="N43" s="303"/>
+      <c r="N43" s="312"/>
     </row>
     <row r="44" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
@@ -6431,7 +6361,7 @@
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
       <c r="M44" s="96"/>
-      <c r="N44" s="303"/>
+      <c r="N44" s="312"/>
     </row>
     <row r="45" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
@@ -6453,7 +6383,7 @@
       <c r="K45" s="96"/>
       <c r="L45" s="96"/>
       <c r="M45" s="96"/>
-      <c r="N45" s="303"/>
+      <c r="N45" s="312"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="117"/>
@@ -7027,13 +6957,13 @@
       <c r="M71" s="85"/>
       <c r="N71" s="84"/>
     </row>
-    <row r="72" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A72" s="300" t="s">
+    <row r="72" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A72" s="309" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="301"/>
-      <c r="C72" s="301"/>
-      <c r="D72" s="301"/>
+      <c r="B72" s="310"/>
+      <c r="C72" s="310"/>
+      <c r="D72" s="310"/>
       <c r="E72" s="158">
         <f>SUM(E9:E71)</f>
         <v>33</v>
@@ -7059,9 +6989,9 @@
       </c>
       <c r="M72" s="162"/>
       <c r="N72" s="180"/>
-      <c r="O72" s="304"/>
-    </row>
-    <row r="73" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O72" s="297"/>
+    </row>
+    <row r="73" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="298" t="s">
         <v>78</v>
       </c>
@@ -7081,15 +7011,15 @@
       <c r="L73" s="102"/>
       <c r="M73" s="102"/>
       <c r="N73" s="180"/>
-      <c r="O73" s="304"/>
-    </row>
-    <row r="74" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="O73" s="297"/>
+    </row>
+    <row r="74" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="298" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="299"/>
       <c r="C74" s="299"/>
-      <c r="D74" s="310"/>
+      <c r="D74" s="303"/>
       <c r="E74" s="156"/>
       <c r="F74" s="156"/>
       <c r="G74" s="99">
@@ -7105,7 +7035,7 @@
       <c r="N74" s="180"/>
       <c r="O74" s="163"/>
     </row>
-    <row r="75" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="298" t="s">
         <v>75</v>
       </c>
@@ -7126,7 +7056,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="180"/>
     </row>
-    <row r="76" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="298" t="s">
         <v>76</v>
       </c>
@@ -7147,7 +7077,7 @@
       <c r="M76" s="102"/>
       <c r="N76" s="180"/>
     </row>
-    <row r="77" spans="1:15" s="101" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="298" t="s">
         <v>77</v>
       </c>
@@ -7194,32 +7124,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N35:N38"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:A8"/>
@@ -7236,6 +7140,32 @@
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.33" right="0.2" top="0.45" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7246,24 +7176,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="201" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="202" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="184" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="184" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="202" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="184" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="184" customWidth="1"/>
     <col min="5" max="5" width="11" style="185" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="184" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="185" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="184" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="185" customWidth="1"/>
     <col min="8" max="8" width="16" style="185" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="185"/>
+    <col min="9" max="16384" width="9.140625" style="185"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
@@ -7282,7 +7212,7 @@
       <c r="Q1" s="167"/>
       <c r="R1" s="168"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="175" t="s">
         <v>2</v>
       </c>
@@ -7321,7 +7251,7 @@
       <c r="Q3" s="167"/>
       <c r="R3" s="168"/>
     </row>
-    <row r="4" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="326" t="s">
         <v>80</v>
       </c>
@@ -7343,7 +7273,7 @@
       <c r="Q4" s="173"/>
       <c r="R4" s="173"/>
     </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="327" t="s">
         <v>130</v>
       </c>
@@ -7365,7 +7295,7 @@
       <c r="Q5" s="173"/>
       <c r="R5" s="173"/>
     </row>
-    <row r="7" spans="1:18" s="174" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="174" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="328" t="s">
         <v>81</v>
       </c>
@@ -7387,7 +7317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="179" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="179" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="328"/>
       <c r="B8" s="329"/>
       <c r="C8" s="182" t="s">
@@ -7405,7 +7335,7 @@
       <c r="G8" s="334"/>
       <c r="H8" s="329"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="186">
         <v>43955</v>
       </c>
@@ -7421,7 +7351,7 @@
       <c r="G9" s="189"/>
       <c r="H9" s="189"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="190"/>
       <c r="B10" s="191" t="s">
         <v>90</v>
@@ -7435,7 +7365,7 @@
       <c r="G10" s="193"/>
       <c r="H10" s="193"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="190"/>
       <c r="B11" s="191" t="s">
         <v>91</v>
@@ -7449,7 +7379,7 @@
       <c r="G11" s="193"/>
       <c r="H11" s="193"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="190"/>
       <c r="B12" s="191" t="s">
         <v>92</v>
@@ -7463,7 +7393,7 @@
       <c r="G12" s="193"/>
       <c r="H12" s="193"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="190"/>
       <c r="B13" s="191" t="s">
         <v>93</v>
@@ -7477,7 +7407,7 @@
       <c r="G13" s="193"/>
       <c r="H13" s="193"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="190"/>
       <c r="B14" s="191" t="s">
         <v>94</v>
@@ -7491,7 +7421,7 @@
       <c r="G14" s="193"/>
       <c r="H14" s="193"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="190"/>
       <c r="B15" s="191" t="s">
         <v>95</v>
@@ -7505,7 +7435,7 @@
       <c r="G15" s="193"/>
       <c r="H15" s="193"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="190"/>
       <c r="B16" s="191" t="s">
         <v>96</v>
@@ -7519,7 +7449,7 @@
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="190"/>
       <c r="B17" s="191" t="s">
         <v>97</v>
@@ -7533,7 +7463,7 @@
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="190"/>
       <c r="B18" s="191" t="s">
         <v>98</v>
@@ -7547,7 +7477,7 @@
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="190"/>
       <c r="B19" s="191" t="s">
         <v>99</v>
@@ -7561,7 +7491,7 @@
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="190"/>
       <c r="B20" s="191" t="s">
         <v>100</v>
@@ -7575,7 +7505,7 @@
       <c r="G20" s="193"/>
       <c r="H20" s="193"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="190"/>
       <c r="B21" s="191" t="s">
         <v>101</v>
@@ -7589,7 +7519,7 @@
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="190"/>
       <c r="B22" s="191" t="s">
         <v>102</v>
@@ -7603,7 +7533,7 @@
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="190"/>
       <c r="B23" s="191" t="s">
         <v>103</v>
@@ -7618,7 +7548,7 @@
       <c r="G23" s="193"/>
       <c r="H23" s="193"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="190">
         <v>43957</v>
       </c>
@@ -7634,7 +7564,7 @@
       <c r="G24" s="193"/>
       <c r="H24" s="193"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="190"/>
       <c r="B25" s="191" t="s">
         <v>105</v>
@@ -7648,7 +7578,7 @@
       <c r="G25" s="193"/>
       <c r="H25" s="193"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="190"/>
       <c r="B26" s="191" t="s">
         <v>106</v>
@@ -7662,7 +7592,7 @@
       <c r="G26" s="193"/>
       <c r="H26" s="193"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="190"/>
       <c r="B27" s="191" t="s">
         <v>107</v>
@@ -7676,7 +7606,7 @@
       <c r="G27" s="193"/>
       <c r="H27" s="193"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="190"/>
       <c r="B28" s="191" t="s">
         <v>108</v>
@@ -7690,7 +7620,7 @@
       <c r="G28" s="193"/>
       <c r="H28" s="193"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="190"/>
       <c r="B29" s="191" t="s">
         <v>109</v>
@@ -7705,7 +7635,7 @@
       <c r="G29" s="193"/>
       <c r="H29" s="193"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="190"/>
       <c r="B30" s="191" t="s">
         <v>110</v>
@@ -7720,7 +7650,7 @@
       <c r="G30" s="193"/>
       <c r="H30" s="193"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="190"/>
       <c r="B31" s="191" t="s">
         <v>111</v>
@@ -7734,7 +7664,7 @@
       <c r="G31" s="193"/>
       <c r="H31" s="193"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="190"/>
       <c r="B32" s="191" t="s">
         <v>112</v>
@@ -7748,7 +7678,7 @@
       <c r="G32" s="193"/>
       <c r="H32" s="193"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="190"/>
       <c r="B33" s="191" t="s">
         <v>113</v>
@@ -7762,7 +7692,7 @@
       <c r="G33" s="193"/>
       <c r="H33" s="193"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="190"/>
       <c r="B34" s="191" t="s">
         <v>114</v>
@@ -7777,7 +7707,7 @@
       <c r="G34" s="193"/>
       <c r="H34" s="193"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="190"/>
       <c r="B35" s="191" t="s">
         <v>94</v>
@@ -7791,7 +7721,7 @@
       <c r="G35" s="193"/>
       <c r="H35" s="193"/>
     </row>
-    <row r="36" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="190">
         <v>43958</v>
       </c>
@@ -7807,7 +7737,7 @@
       <c r="G36" s="193"/>
       <c r="H36" s="193"/>
     </row>
-    <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="190">
         <v>43959</v>
       </c>
@@ -7823,7 +7753,7 @@
       <c r="G37" s="193"/>
       <c r="H37" s="193"/>
     </row>
-    <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="190">
         <v>43959</v>
       </c>
@@ -7839,7 +7769,7 @@
       <c r="G38" s="193"/>
       <c r="H38" s="193"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="190">
         <v>43959</v>
       </c>
@@ -7855,7 +7785,7 @@
       <c r="G39" s="193"/>
       <c r="H39" s="193"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="190">
         <v>43962</v>
       </c>
@@ -7871,7 +7801,7 @@
       <c r="G40" s="193"/>
       <c r="H40" s="193"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="190">
         <v>43964</v>
       </c>
@@ -7887,7 +7817,7 @@
       <c r="G41" s="193"/>
       <c r="H41" s="193"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="190">
         <v>43964</v>
       </c>
@@ -7905,7 +7835,7 @@
       <c r="G42" s="193"/>
       <c r="H42" s="193"/>
     </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="190"/>
       <c r="B43" s="191"/>
       <c r="C43" s="192"/>
@@ -7915,7 +7845,7 @@
       <c r="G43" s="193"/>
       <c r="H43" s="193"/>
     </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="190"/>
       <c r="B44" s="191"/>
       <c r="C44" s="192"/>
@@ -7925,7 +7855,7 @@
       <c r="G44" s="193"/>
       <c r="H44" s="193"/>
     </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="190"/>
       <c r="B45" s="191"/>
       <c r="C45" s="192"/>
@@ -7935,7 +7865,7 @@
       <c r="G45" s="193"/>
       <c r="H45" s="193"/>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="194"/>
       <c r="B46" s="195"/>
       <c r="C46" s="196"/>
@@ -7945,7 +7875,7 @@
       <c r="G46" s="197"/>
       <c r="H46" s="197"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="190">
         <v>43962</v>
       </c>
@@ -7961,7 +7891,7 @@
       <c r="G47" s="193"/>
       <c r="H47" s="193"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="190"/>
       <c r="B48" s="191" t="s">
         <v>126</v>
@@ -7970,12 +7900,12 @@
       <c r="D48" s="192"/>
       <c r="E48" s="193"/>
       <c r="F48" s="192">
-        <v>1150000</v>
+        <v>11500000</v>
       </c>
       <c r="G48" s="193"/>
       <c r="H48" s="193"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="190"/>
       <c r="B49" s="191" t="s">
         <v>127</v>
@@ -7989,7 +7919,7 @@
       <c r="G49" s="193"/>
       <c r="H49" s="193"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="190"/>
       <c r="B50" s="191" t="s">
         <v>128</v>
@@ -8003,7 +7933,7 @@
       <c r="G50" s="193"/>
       <c r="H50" s="193"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="190"/>
       <c r="B51" s="191" t="s">
         <v>129</v>
@@ -8017,7 +7947,7 @@
       <c r="G51" s="193"/>
       <c r="H51" s="193"/>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="247"/>
       <c r="B52" s="248"/>
       <c r="C52" s="249"/>
@@ -8027,7 +7957,7 @@
       <c r="G52" s="250"/>
       <c r="H52" s="250"/>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="247"/>
       <c r="B53" s="248"/>
       <c r="C53" s="249"/>
@@ -8037,7 +7967,7 @@
       <c r="G53" s="250"/>
       <c r="H53" s="250"/>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="247"/>
       <c r="B54" s="248"/>
       <c r="C54" s="249"/>
@@ -8047,7 +7977,7 @@
       <c r="G54" s="250"/>
       <c r="H54" s="250"/>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="247"/>
       <c r="B55" s="248"/>
       <c r="C55" s="249"/>
@@ -8057,7 +7987,7 @@
       <c r="G55" s="250"/>
       <c r="H55" s="250"/>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="247"/>
       <c r="B56" s="248"/>
       <c r="C56" s="249"/>
@@ -8067,7 +7997,7 @@
       <c r="G56" s="250"/>
       <c r="H56" s="250"/>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="247"/>
       <c r="B57" s="248"/>
       <c r="C57" s="249"/>
@@ -8077,7 +8007,7 @@
       <c r="G57" s="250"/>
       <c r="H57" s="250"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="247"/>
       <c r="B58" s="248"/>
       <c r="C58" s="249"/>
@@ -8087,7 +8017,7 @@
       <c r="G58" s="250"/>
       <c r="H58" s="250"/>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="247"/>
       <c r="B59" s="248"/>
       <c r="C59" s="249"/>
@@ -8097,7 +8027,7 @@
       <c r="G59" s="250"/>
       <c r="H59" s="250"/>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="247"/>
       <c r="B60" s="248"/>
       <c r="C60" s="249"/>
@@ -8107,7 +8037,7 @@
       <c r="G60" s="250"/>
       <c r="H60" s="250"/>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="247"/>
       <c r="B61" s="248"/>
       <c r="C61" s="249"/>
@@ -8117,7 +8047,7 @@
       <c r="G61" s="250"/>
       <c r="H61" s="250"/>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="247"/>
       <c r="B62" s="248"/>
       <c r="C62" s="249"/>
@@ -8127,7 +8057,7 @@
       <c r="G62" s="250"/>
       <c r="H62" s="250"/>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="247"/>
       <c r="B63" s="248"/>
       <c r="C63" s="249"/>
@@ -8137,7 +8067,7 @@
       <c r="G63" s="250"/>
       <c r="H63" s="250"/>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="247"/>
       <c r="B64" s="248"/>
       <c r="C64" s="249"/>
@@ -8147,7 +8077,7 @@
       <c r="G64" s="250"/>
       <c r="H64" s="250"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="247"/>
       <c r="B65" s="248"/>
       <c r="C65" s="249"/>
@@ -8157,7 +8087,7 @@
       <c r="G65" s="250"/>
       <c r="H65" s="250"/>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="247"/>
       <c r="B66" s="248"/>
       <c r="C66" s="249"/>
@@ -8167,7 +8097,7 @@
       <c r="G66" s="250"/>
       <c r="H66" s="250"/>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="247"/>
       <c r="B67" s="248"/>
       <c r="C67" s="249"/>
@@ -8177,7 +8107,7 @@
       <c r="G67" s="250"/>
       <c r="H67" s="250"/>
     </row>
-    <row r="68" spans="1:8" s="200" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="200" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" s="324" t="s">
         <v>120</v>
       </c>
@@ -8193,7 +8123,7 @@
       </c>
       <c r="F68" s="198">
         <f>SUM(F9:F51)</f>
-        <v>36807500</v>
+        <v>47157500</v>
       </c>
       <c r="G68" s="199"/>
       <c r="H68" s="199"/>
@@ -8201,7 +8131,7 @@
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F70" s="206"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="185" t="s">
         <v>88</v>
       </c>
@@ -8226,284 +8156,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" style="342" customWidth="1"/>
-    <col min="2" max="2" width="37" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="338" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="338" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="185" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="339"/>
-      <c r="C1" s="335" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="184"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168"/>
-    </row>
-    <row r="2" spans="1:18" s="185" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="340"/>
-      <c r="C2" s="336" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="184"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-    </row>
-    <row r="3" spans="1:18" s="185" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="340"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-    </row>
-    <row r="4" spans="1:18" s="185" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="326" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="343" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="344" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="345" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="345" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="341">
-        <v>1</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="341">
-        <v>2</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="337"/>
-      <c r="D8" s="337">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="341">
-        <v>3</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337">
-        <v>14650000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="341">
-        <v>4</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="341">
-        <v>5</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="341">
-        <v>6</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="341">
-        <v>7</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="337"/>
-      <c r="D13" s="337">
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="341"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="337"/>
-      <c r="D14" s="337"/>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="341"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="337"/>
-      <c r="D15" s="337"/>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="341"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="337"/>
-      <c r="D16" s="337"/>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="341"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="341"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="337"/>
-      <c r="D18" s="337"/>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="341"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="337"/>
-      <c r="D19" s="337"/>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="341"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="337"/>
-      <c r="D20" s="337"/>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="341"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="337"/>
-      <c r="D21" s="337"/>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="341"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="337"/>
-      <c r="D22" s="337"/>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="341"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="341"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="337"/>
-      <c r="D24" s="337"/>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="341"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="337"/>
-      <c r="D25" s="337"/>
-    </row>
-    <row r="26" spans="1:4" s="349" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="346" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="347"/>
-      <c r="C26" s="348"/>
-      <c r="D26" s="348">
-        <f>SUM(D7:D25)</f>
-        <v>39150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A4:D4"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>